--- a/out/CE/FigA_7.xlsx
+++ b/out/CE/FigA_7.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8510539A-9D7D-45BB-8F52-B155F6CA2BB7}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.75178999999999996</v>
+        <v>0.73180999999999996</v>
       </c>
       <c r="B1">
-        <v>0.73607</v>
+        <v>0.74358000000000002</v>
       </c>
       <c r="C1">
-        <v>0.74392999999999998</v>
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="D1">
+        <v>0.73729</v>
+      </c>
+      <c r="E1">
+        <v>0.73287000000000002</v>
+      </c>
+      <c r="F1">
+        <v>0.74233000000000005</v>
+      </c>
+      <c r="G1">
+        <v>0.73184000000000005</v>
+      </c>
+      <c r="H1">
+        <v>0.73087999999999997</v>
+      </c>
+      <c r="I1">
+        <v>0.73301000000000005</v>
+      </c>
+      <c r="J1">
+        <v>0.74234</v>
+      </c>
+      <c r="K1">
+        <v>0.75192000000000003</v>
+      </c>
+      <c r="L1">
+        <v>0.73633999999999999</v>
+      </c>
+      <c r="M1">
+        <v>0.73328000000000004</v>
+      </c>
+      <c r="N1">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="O1">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="P1">
+        <v>0.74402000000000001</v>
+      </c>
+      <c r="Q1">
+        <v>0.76615</v>
+      </c>
+      <c r="R1">
+        <v>0.72099000000000002</v>
+      </c>
+      <c r="S1">
+        <v>0.74434</v>
+      </c>
+      <c r="T1">
+        <v>0.74295</v>
+      </c>
+      <c r="U1">
+        <v>0.74300999999999995</v>
+      </c>
+      <c r="V1">
+        <v>0.75088999999999995</v>
+      </c>
+      <c r="W1">
+        <v>0.75180000000000002</v>
+      </c>
+      <c r="X1">
+        <v>0.73736999999999997</v>
+      </c>
+      <c r="Y1">
+        <v>0.75358000000000003</v>
+      </c>
+      <c r="Z1">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="AA1">
+        <v>0.75492999999999999</v>
+      </c>
+      <c r="AB1">
+        <v>0.74541999999999997</v>
+      </c>
+      <c r="AC1">
+        <v>0.73107</v>
+      </c>
+      <c r="AD1">
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="AE1">
+        <v>0.71480999999999995</v>
+      </c>
+      <c r="AF1">
+        <v>0.74917999999999996</v>
+      </c>
+      <c r="AG1">
+        <v>0.73079000000000005</v>
+      </c>
+      <c r="AH1">
+        <v>0.71909000000000001</v>
+      </c>
+      <c r="AI1">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="AJ1">
+        <v>0.71872000000000003</v>
+      </c>
+      <c r="AK1">
+        <v>0.74533000000000005</v>
+      </c>
+      <c r="AL1">
+        <v>0.73612</v>
+      </c>
+      <c r="AM1">
+        <v>0.73016000000000003</v>
+      </c>
+      <c r="AN1">
+        <v>0.73355000000000004</v>
+      </c>
+      <c r="AO1">
+        <v>0.72972999999999999</v>
+      </c>
+      <c r="AP1">
+        <v>0.73485</v>
+      </c>
+      <c r="AQ1">
+        <v>0.72877999999999998</v>
+      </c>
+      <c r="AR1">
+        <v>0.74421999999999999</v>
+      </c>
+      <c r="AS1">
+        <v>0.76715999999999995</v>
+      </c>
+      <c r="AT1">
+        <v>0.72616000000000003</v>
+      </c>
+      <c r="AU1">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="AV1">
+        <v>0.73811000000000004</v>
+      </c>
+      <c r="AW1">
+        <v>0.75170999999999999</v>
+      </c>
+      <c r="AX1">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="AY1">
+        <v>0.75638000000000005</v>
+      </c>
+      <c r="AZ1">
+        <v>0.75482000000000005</v>
+      </c>
+      <c r="BA1">
+        <v>0.71633000000000002</v>
+      </c>
+      <c r="BB1">
+        <v>0.74416000000000004</v>
+      </c>
+      <c r="BC1">
+        <v>0.74970999999999999</v>
+      </c>
+      <c r="BD1">
+        <v>0.76527999999999996</v>
+      </c>
+      <c r="BE1">
+        <v>0.73504000000000003</v>
+      </c>
+      <c r="BF1">
+        <v>0.75824000000000003</v>
+      </c>
+      <c r="BG1">
+        <v>0.73992000000000002</v>
+      </c>
+      <c r="BH1">
+        <v>0.74343999999999999</v>
+      </c>
+      <c r="BI1">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="BJ1">
+        <v>0.73268999999999995</v>
+      </c>
+      <c r="BK1">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="BL1">
+        <v>0.72119999999999995</v>
+      </c>
+      <c r="BM1">
+        <v>0.73090999999999995</v>
+      </c>
+      <c r="BN1">
+        <v>0.74514999999999998</v>
+      </c>
+      <c r="BO1">
+        <v>0.73936000000000002</v>
+      </c>
+      <c r="BP1">
+        <v>0.73546</v>
+      </c>
+      <c r="BQ1">
+        <v>0.72514999999999996</v>
+      </c>
+      <c r="BR1">
+        <v>0.73751</v>
+      </c>
+      <c r="BS1">
+        <v>0.73145000000000004</v>
+      </c>
+      <c r="BT1">
+        <v>0.70879999999999999</v>
+      </c>
+      <c r="BU1">
+        <v>0.73143999999999998</v>
+      </c>
+      <c r="BV1">
+        <v>0.74614000000000003</v>
+      </c>
+      <c r="BW1">
+        <v>0.74851000000000001</v>
+      </c>
+      <c r="BX1">
+        <v>0.75541999999999998</v>
+      </c>
+      <c r="BY1">
+        <v>0.75956999999999997</v>
+      </c>
+      <c r="BZ1">
+        <v>0.73997999999999997</v>
+      </c>
+      <c r="CA1">
+        <v>0.73924000000000001</v>
+      </c>
+      <c r="CB1">
+        <v>0.75302000000000002</v>
+      </c>
+      <c r="CC1">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="CD1">
+        <v>0.74163999999999997</v>
+      </c>
+      <c r="CE1">
+        <v>0.74731999999999998</v>
+      </c>
+      <c r="CF1">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="CG1">
+        <v>0.75565000000000004</v>
+      </c>
+      <c r="CH1">
+        <v>0.74887000000000004</v>
+      </c>
+      <c r="CI1">
+        <v>0.74592000000000003</v>
+      </c>
+      <c r="CJ1">
+        <v>0.74899000000000004</v>
+      </c>
+      <c r="CK1">
+        <v>0.73878999999999995</v>
+      </c>
+      <c r="CL1">
+        <v>0.73787999999999998</v>
+      </c>
+      <c r="CM1">
+        <v>0.74377000000000004</v>
+      </c>
+      <c r="CN1">
+        <v>0.71445999999999998</v>
+      </c>
+      <c r="CO1">
+        <v>0.74582999999999999</v>
+      </c>
+      <c r="CP1">
+        <v>0.72589999999999999</v>
+      </c>
+      <c r="CQ1">
+        <v>0.73597000000000001</v>
+      </c>
+      <c r="CR1">
+        <v>0.72135000000000005</v>
+      </c>
+      <c r="CS1">
+        <v>0.73863000000000001</v>
+      </c>
+      <c r="CT1">
+        <v>0.73402999999999996</v>
+      </c>
+      <c r="CU1">
+        <v>0.72553000000000001</v>
+      </c>
+      <c r="CV1">
+        <v>0.73878999999999995</v>
+      </c>
+      <c r="CW1">
+        <v>0.73953519999999995</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.73153999999999997</v>
+        <v>0.72133999999999998</v>
       </c>
       <c r="B2">
-        <v>0.71906000000000003</v>
+        <v>0.73157000000000005</v>
       </c>
       <c r="C2">
-        <v>0.72530000000000006</v>
+        <v>0.74080999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.70360999999999996</v>
+      </c>
+      <c r="F2">
+        <v>0.75112999999999996</v>
+      </c>
+      <c r="G2">
+        <v>0.73036999999999996</v>
+      </c>
+      <c r="H2">
+        <v>0.73226000000000002</v>
+      </c>
+      <c r="I2">
+        <v>0.73146999999999995</v>
+      </c>
+      <c r="J2">
+        <v>0.72616999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.72602999999999995</v>
+      </c>
+      <c r="L2">
+        <v>0.72950999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.72402999999999995</v>
+      </c>
+      <c r="N2">
+        <v>0.73672000000000004</v>
+      </c>
+      <c r="O2">
+        <v>0.75714999999999999</v>
+      </c>
+      <c r="P2">
+        <v>0.72768999999999995</v>
+      </c>
+      <c r="Q2">
+        <v>0.71057999999999999</v>
+      </c>
+      <c r="R2">
+        <v>0.73482999999999998</v>
+      </c>
+      <c r="S2">
+        <v>0.73716999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.72541</v>
+      </c>
+      <c r="U2">
+        <v>0.70962000000000003</v>
+      </c>
+      <c r="V2">
+        <v>0.72921999999999998</v>
+      </c>
+      <c r="W2">
+        <v>0.73595999999999995</v>
+      </c>
+      <c r="X2">
+        <v>0.70591999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>0.72328000000000003</v>
+      </c>
+      <c r="Z2">
+        <v>0.71796000000000004</v>
+      </c>
+      <c r="AA2">
+        <v>0.73070999999999997</v>
+      </c>
+      <c r="AB2">
+        <v>0.70933000000000002</v>
+      </c>
+      <c r="AC2">
+        <v>0.74441000000000002</v>
+      </c>
+      <c r="AD2">
+        <v>0.70738999999999996</v>
+      </c>
+      <c r="AE2">
+        <v>0.72785</v>
+      </c>
+      <c r="AF2">
+        <v>0.74833000000000005</v>
+      </c>
+      <c r="AG2">
+        <v>0.72875000000000001</v>
+      </c>
+      <c r="AH2">
+        <v>0.72785999999999995</v>
+      </c>
+      <c r="AI2">
+        <v>0.73860999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>0.75641000000000003</v>
+      </c>
+      <c r="AK2">
+        <v>0.73362000000000005</v>
+      </c>
+      <c r="AL2">
+        <v>0.73880999999999997</v>
+      </c>
+      <c r="AM2">
+        <v>0.72614000000000001</v>
+      </c>
+      <c r="AN2">
+        <v>0.73146</v>
+      </c>
+      <c r="AO2">
+        <v>0.71835000000000004</v>
+      </c>
+      <c r="AP2">
+        <v>0.72848000000000002</v>
+      </c>
+      <c r="AQ2">
+        <v>0.70826999999999996</v>
+      </c>
+      <c r="AR2">
+        <v>0.73394000000000004</v>
+      </c>
+      <c r="AS2">
+        <v>0.75187999999999999</v>
+      </c>
+      <c r="AT2">
+        <v>0.72096000000000005</v>
+      </c>
+      <c r="AU2">
+        <v>0.71601999999999999</v>
+      </c>
+      <c r="AV2">
+        <v>0.71728000000000003</v>
+      </c>
+      <c r="AW2">
+        <v>0.73965999999999998</v>
+      </c>
+      <c r="AX2">
+        <v>0.74151</v>
+      </c>
+      <c r="AY2">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="AZ2">
+        <v>0.73468</v>
+      </c>
+      <c r="BA2">
+        <v>0.74304999999999999</v>
+      </c>
+      <c r="BB2">
+        <v>0.72272999999999998</v>
+      </c>
+      <c r="BC2">
+        <v>0.74051999999999996</v>
+      </c>
+      <c r="BD2">
+        <v>0.71552000000000004</v>
+      </c>
+      <c r="BE2">
+        <v>0.73260999999999998</v>
+      </c>
+      <c r="BF2">
+        <v>0.73055000000000003</v>
+      </c>
+      <c r="BG2">
+        <v>0.73582999999999998</v>
+      </c>
+      <c r="BH2">
+        <v>0.71153</v>
+      </c>
+      <c r="BI2">
+        <v>0.71470999999999996</v>
+      </c>
+      <c r="BJ2">
+        <v>0.72945000000000004</v>
+      </c>
+      <c r="BK2">
+        <v>0.73517999999999994</v>
+      </c>
+      <c r="BL2">
+        <v>0.73723000000000005</v>
+      </c>
+      <c r="BM2">
+        <v>0.72699000000000003</v>
+      </c>
+      <c r="BN2">
+        <v>0.75078999999999996</v>
+      </c>
+      <c r="BO2">
+        <v>0.72075</v>
+      </c>
+      <c r="BP2">
+        <v>0.74912000000000001</v>
+      </c>
+      <c r="BQ2">
+        <v>0.73087000000000002</v>
+      </c>
+      <c r="BR2">
+        <v>0.70633000000000001</v>
+      </c>
+      <c r="BS2">
+        <v>0.72835000000000005</v>
+      </c>
+      <c r="BT2">
+        <v>0.73987000000000003</v>
+      </c>
+      <c r="BU2">
+        <v>0.73311999999999999</v>
+      </c>
+      <c r="BV2">
+        <v>0.72675999999999996</v>
+      </c>
+      <c r="BW2">
+        <v>0.72450000000000003</v>
+      </c>
+      <c r="BX2">
+        <v>0.73255000000000003</v>
+      </c>
+      <c r="BY2">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="BZ2">
+        <v>0.71745000000000003</v>
+      </c>
+      <c r="CA2">
+        <v>0.70089000000000001</v>
+      </c>
+      <c r="CB2">
+        <v>0.72785</v>
+      </c>
+      <c r="CC2">
+        <v>0.73297999999999996</v>
+      </c>
+      <c r="CD2">
+        <v>0.72892000000000001</v>
+      </c>
+      <c r="CE2">
+        <v>0.71882000000000001</v>
+      </c>
+      <c r="CF2">
+        <v>0.72492999999999996</v>
+      </c>
+      <c r="CG2">
+        <v>0.72699000000000003</v>
+      </c>
+      <c r="CH2">
+        <v>0.73509000000000002</v>
+      </c>
+      <c r="CI2">
+        <v>0.73126999999999998</v>
+      </c>
+      <c r="CJ2">
+        <v>0.72745000000000004</v>
+      </c>
+      <c r="CK2">
+        <v>0.71865000000000001</v>
+      </c>
+      <c r="CL2">
+        <v>0.72094000000000003</v>
+      </c>
+      <c r="CM2">
+        <v>0.73704999999999998</v>
+      </c>
+      <c r="CN2">
+        <v>0.73397000000000001</v>
+      </c>
+      <c r="CO2">
+        <v>0.72358999999999996</v>
+      </c>
+      <c r="CP2">
+        <v>0.73868999999999996</v>
+      </c>
+      <c r="CQ2">
+        <v>0.745</v>
+      </c>
+      <c r="CR2">
+        <v>0.71997</v>
+      </c>
+      <c r="CS2">
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="CT2">
+        <v>0.70862000000000003</v>
+      </c>
+      <c r="CU2">
+        <v>0.72526999999999997</v>
+      </c>
+      <c r="CV2">
+        <v>0.74643000000000004</v>
+      </c>
+      <c r="CW2">
+        <v>0.7290875</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.71694000000000002</v>
+        <v>0.70972999999999997</v>
       </c>
       <c r="B3">
-        <v>0.71772999999999998</v>
+        <v>0.72241</v>
       </c>
       <c r="C3">
-        <v>0.71733500000000006</v>
+        <v>0.71672999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.73197000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.70816000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.70343999999999995</v>
+      </c>
+      <c r="G3">
+        <v>0.73816000000000004</v>
+      </c>
+      <c r="H3">
+        <v>0.70831</v>
+      </c>
+      <c r="I3">
+        <v>0.70557000000000003</v>
+      </c>
+      <c r="J3">
+        <v>0.71555999999999997</v>
+      </c>
+      <c r="K3">
+        <v>0.70718999999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.69316999999999995</v>
+      </c>
+      <c r="M3">
+        <v>0.70574000000000003</v>
+      </c>
+      <c r="N3">
+        <v>0.72153999999999996</v>
+      </c>
+      <c r="O3">
+        <v>0.70226999999999995</v>
+      </c>
+      <c r="P3">
+        <v>0.72472999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.72023000000000004</v>
+      </c>
+      <c r="R3">
+        <v>0.71474000000000004</v>
+      </c>
+      <c r="S3">
+        <v>0.70086000000000004</v>
+      </c>
+      <c r="T3">
+        <v>0.71643999999999997</v>
+      </c>
+      <c r="U3">
+        <v>0.71550999999999998</v>
+      </c>
+      <c r="V3">
+        <v>0.71553999999999995</v>
+      </c>
+      <c r="W3">
+        <v>0.72367000000000004</v>
+      </c>
+      <c r="X3">
+        <v>0.70304</v>
+      </c>
+      <c r="Y3">
+        <v>0.70791999999999999</v>
+      </c>
+      <c r="Z3">
+        <v>0.70714999999999995</v>
+      </c>
+      <c r="AA3">
+        <v>0.71804999999999997</v>
+      </c>
+      <c r="AB3">
+        <v>0.72558</v>
+      </c>
+      <c r="AC3">
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="AD3">
+        <v>0.70655000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>0.73187999999999998</v>
+      </c>
+      <c r="AF3">
+        <v>0.75039</v>
+      </c>
+      <c r="AG3">
+        <v>0.70345999999999997</v>
+      </c>
+      <c r="AH3">
+        <v>0.70848999999999995</v>
+      </c>
+      <c r="AI3">
+        <v>0.72143999999999997</v>
+      </c>
+      <c r="AJ3">
+        <v>0.68323</v>
+      </c>
+      <c r="AK3">
+        <v>0.73414000000000001</v>
+      </c>
+      <c r="AL3">
+        <v>0.73492000000000002</v>
+      </c>
+      <c r="AM3">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="AN3">
+        <v>0.68264999999999998</v>
+      </c>
+      <c r="AO3">
+        <v>0.72719</v>
+      </c>
+      <c r="AP3">
+        <v>0.71977999999999998</v>
+      </c>
+      <c r="AQ3">
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="AR3">
+        <v>0.70276000000000005</v>
+      </c>
+      <c r="AS3">
+        <v>0.70911999999999997</v>
+      </c>
+      <c r="AT3">
+        <v>0.72089999999999999</v>
+      </c>
+      <c r="AU3">
+        <v>0.72887000000000002</v>
+      </c>
+      <c r="AV3">
+        <v>0.71877999999999997</v>
+      </c>
+      <c r="AW3">
+        <v>0.70835000000000004</v>
+      </c>
+      <c r="AX3">
+        <v>0.72082000000000002</v>
+      </c>
+      <c r="AY3">
+        <v>0.70777000000000001</v>
+      </c>
+      <c r="AZ3">
+        <v>0.72214</v>
+      </c>
+      <c r="BA3">
+        <v>0.72253999999999996</v>
+      </c>
+      <c r="BB3">
+        <v>0.72070000000000001</v>
+      </c>
+      <c r="BC3">
+        <v>0.73863000000000001</v>
+      </c>
+      <c r="BD3">
+        <v>0.70145999999999997</v>
+      </c>
+      <c r="BE3">
+        <v>0.70640999999999998</v>
+      </c>
+      <c r="BF3">
+        <v>0.71445000000000003</v>
+      </c>
+      <c r="BG3">
+        <v>0.70831</v>
+      </c>
+      <c r="BH3">
+        <v>0.72863</v>
+      </c>
+      <c r="BI3">
+        <v>0.71140999999999999</v>
+      </c>
+      <c r="BJ3">
+        <v>0.71094000000000002</v>
+      </c>
+      <c r="BK3">
+        <v>0.69950999999999997</v>
+      </c>
+      <c r="BL3">
+        <v>0.71438000000000001</v>
+      </c>
+      <c r="BM3">
+        <v>0.70540999999999998</v>
+      </c>
+      <c r="BN3">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="BO3">
+        <v>0.6996</v>
+      </c>
+      <c r="BP3">
+        <v>0.71387</v>
+      </c>
+      <c r="BQ3">
+        <v>0.73192000000000002</v>
+      </c>
+      <c r="BR3">
+        <v>0.70181000000000004</v>
+      </c>
+      <c r="BS3">
+        <v>0.70191999999999999</v>
+      </c>
+      <c r="BT3">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="BU3">
+        <v>0.73812</v>
+      </c>
+      <c r="BV3">
+        <v>0.71823000000000004</v>
+      </c>
+      <c r="BW3">
+        <v>0.71555999999999997</v>
+      </c>
+      <c r="BX3">
+        <v>0.70711999999999997</v>
+      </c>
+      <c r="BY3">
+        <v>0.71908000000000005</v>
+      </c>
+      <c r="BZ3">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="CA3">
+        <v>0.72321000000000002</v>
+      </c>
+      <c r="CB3">
+        <v>0.73165000000000002</v>
+      </c>
+      <c r="CC3">
+        <v>0.69152000000000002</v>
+      </c>
+      <c r="CD3">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="CE3">
+        <v>0.70648</v>
+      </c>
+      <c r="CF3">
+        <v>0.71406000000000003</v>
+      </c>
+      <c r="CG3">
+        <v>0.72384000000000004</v>
+      </c>
+      <c r="CH3">
+        <v>0.71147000000000005</v>
+      </c>
+      <c r="CI3">
+        <v>0.72301000000000004</v>
+      </c>
+      <c r="CJ3">
+        <v>0.72718000000000005</v>
+      </c>
+      <c r="CK3">
+        <v>0.72033000000000003</v>
+      </c>
+      <c r="CL3">
+        <v>0.70891000000000004</v>
+      </c>
+      <c r="CM3">
+        <v>0.70686000000000004</v>
+      </c>
+      <c r="CN3">
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="CO3">
+        <v>0.72133999999999998</v>
+      </c>
+      <c r="CP3">
+        <v>0.70694999999999997</v>
+      </c>
+      <c r="CQ3">
+        <v>0.72477999999999998</v>
+      </c>
+      <c r="CR3">
+        <v>0.70626</v>
+      </c>
+      <c r="CS3">
+        <v>0.71633999999999998</v>
+      </c>
+      <c r="CT3">
+        <v>0.70621</v>
+      </c>
+      <c r="CU3">
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="CV3">
+        <v>0.70652999999999999</v>
+      </c>
+      <c r="CW3">
+        <v>0.71466380000000029</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0.72458</v>
+      </c>
+      <c r="B4">
+        <v>0.70311000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.70506000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.72845000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.70809999999999995</v>
+      </c>
+      <c r="F4">
+        <v>0.69938</v>
+      </c>
+      <c r="G4">
+        <v>0.69676000000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.71087999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.68405000000000005</v>
+      </c>
+      <c r="K4">
+        <v>0.68847000000000003</v>
+      </c>
+      <c r="L4">
+        <v>0.69366000000000005</v>
+      </c>
+      <c r="M4">
+        <v>0.71552000000000004</v>
+      </c>
+      <c r="N4">
+        <v>0.71216999999999997</v>
+      </c>
+      <c r="O4">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="P4">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="Q4">
+        <v>0.71747000000000005</v>
+      </c>
+      <c r="R4">
+        <v>0.72635000000000005</v>
+      </c>
+      <c r="S4">
+        <v>0.71092</v>
+      </c>
+      <c r="T4">
+        <v>0.71723999999999999</v>
+      </c>
+      <c r="U4">
+        <v>0.71487999999999996</v>
+      </c>
+      <c r="V4">
+        <v>0.71989999999999998</v>
+      </c>
+      <c r="W4">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="X4">
+        <v>0.70769000000000004</v>
+      </c>
+      <c r="Y4">
+        <v>0.69094999999999995</v>
+      </c>
+      <c r="Z4">
+        <v>0.71853999999999996</v>
+      </c>
+      <c r="AA4">
+        <v>0.69657999999999998</v>
+      </c>
+      <c r="AB4">
+        <v>0.70247000000000004</v>
+      </c>
+      <c r="AC4">
+        <v>0.73141</v>
+      </c>
+      <c r="AD4">
+        <v>0.71360999999999997</v>
+      </c>
+      <c r="AE4">
+        <v>0.72565000000000002</v>
+      </c>
+      <c r="AF4">
+        <v>0.68693000000000004</v>
+      </c>
+      <c r="AG4">
+        <v>0.71940000000000004</v>
+      </c>
+      <c r="AH4">
+        <v>0.69559000000000004</v>
+      </c>
+      <c r="AI4">
+        <v>0.7228</v>
+      </c>
+      <c r="AJ4">
+        <v>0.70015000000000005</v>
+      </c>
+      <c r="AK4">
+        <v>0.70260999999999996</v>
+      </c>
+      <c r="AL4">
+        <v>0.72141</v>
+      </c>
+      <c r="AM4">
+        <v>0.70928000000000002</v>
+      </c>
+      <c r="AN4">
+        <v>0.70508000000000004</v>
+      </c>
+      <c r="AO4">
+        <v>0.72167000000000003</v>
+      </c>
+      <c r="AP4">
+        <v>0.71245999999999998</v>
+      </c>
+      <c r="AQ4">
+        <v>0.72270999999999996</v>
+      </c>
+      <c r="AR4">
+        <v>0.71823000000000004</v>
+      </c>
+      <c r="AS4">
+        <v>0.73512999999999995</v>
+      </c>
+      <c r="AT4">
+        <v>0.7228</v>
+      </c>
+      <c r="AU4">
+        <v>0.68620999999999999</v>
+      </c>
+      <c r="AV4">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AW4">
+        <v>0.72265000000000001</v>
+      </c>
+      <c r="AX4">
+        <v>0.70293000000000005</v>
+      </c>
+      <c r="AY4">
+        <v>0.70620000000000005</v>
+      </c>
+      <c r="AZ4">
+        <v>0.72338000000000002</v>
+      </c>
+      <c r="BA4">
+        <v>0.71309</v>
+      </c>
+      <c r="BB4">
+        <v>0.71467999999999998</v>
+      </c>
+      <c r="BC4">
+        <v>0.72519</v>
+      </c>
+      <c r="BD4">
+        <v>0.69728000000000001</v>
+      </c>
+      <c r="BE4">
+        <v>0.72307999999999995</v>
+      </c>
+      <c r="BF4">
+        <v>0.68555999999999995</v>
+      </c>
+      <c r="BG4">
+        <v>0.71284999999999998</v>
+      </c>
+      <c r="BH4">
+        <v>0.71994000000000002</v>
+      </c>
+      <c r="BI4">
+        <v>0.71370999999999996</v>
+      </c>
+      <c r="BJ4">
+        <v>0.71014999999999995</v>
+      </c>
+      <c r="BK4">
+        <v>0.71406999999999998</v>
+      </c>
+      <c r="BL4">
+        <v>0.71436999999999995</v>
+      </c>
+      <c r="BM4">
+        <v>0.70369999999999999</v>
+      </c>
+      <c r="BN4">
+        <v>0.68557999999999997</v>
+      </c>
+      <c r="BO4">
+        <v>0.72006999999999999</v>
+      </c>
+      <c r="BP4">
+        <v>0.70762000000000003</v>
+      </c>
+      <c r="BQ4">
+        <v>0.71126</v>
+      </c>
+      <c r="BR4">
+        <v>0.69996000000000003</v>
+      </c>
+      <c r="BS4">
+        <v>0.70955999999999997</v>
+      </c>
+      <c r="BT4">
+        <v>0.68867999999999996</v>
+      </c>
+      <c r="BU4">
+        <v>0.71497999999999995</v>
+      </c>
+      <c r="BV4">
+        <v>0.68105000000000004</v>
+      </c>
+      <c r="BW4">
+        <v>0.72423999999999999</v>
+      </c>
+      <c r="BX4">
+        <v>0.70601999999999998</v>
+      </c>
+      <c r="BY4">
+        <v>0.70796999999999999</v>
+      </c>
+      <c r="BZ4">
+        <v>0.71677999999999997</v>
+      </c>
+      <c r="CA4">
+        <v>0.71767999999999998</v>
+      </c>
+      <c r="CB4">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="CC4">
+        <v>0.71104999999999996</v>
+      </c>
+      <c r="CD4">
+        <v>0.69835999999999998</v>
+      </c>
+      <c r="CE4">
+        <v>0.71948999999999996</v>
+      </c>
+      <c r="CF4">
+        <v>0.71858999999999995</v>
+      </c>
+      <c r="CG4">
+        <v>0.69316999999999995</v>
+      </c>
+      <c r="CH4">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="CI4">
+        <v>0.70001999999999998</v>
+      </c>
+      <c r="CJ4">
+        <v>0.70657999999999999</v>
+      </c>
+      <c r="CK4">
+        <v>0.71714999999999995</v>
+      </c>
+      <c r="CL4">
+        <v>0.70569999999999999</v>
+      </c>
+      <c r="CM4">
+        <v>0.70848999999999995</v>
+      </c>
+      <c r="CN4">
+        <v>0.72707999999999995</v>
+      </c>
+      <c r="CO4">
+        <v>0.72757000000000005</v>
+      </c>
+      <c r="CP4">
+        <v>0.72040000000000004</v>
+      </c>
+      <c r="CQ4">
+        <v>0.72946999999999995</v>
+      </c>
+      <c r="CR4">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="CS4">
+        <v>0.68798000000000004</v>
+      </c>
+      <c r="CT4">
+        <v>0.71541999999999994</v>
+      </c>
+      <c r="CU4">
+        <v>0.70911000000000002</v>
+      </c>
+      <c r="CV4">
+        <v>0.70762999999999998</v>
+      </c>
+      <c r="CW4">
+        <v>0.71107849999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.68723999999999996</v>
+      </c>
+      <c r="B5">
+        <v>0.69842000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.68325000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.69603999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.70011999999999996</v>
+      </c>
+      <c r="F5">
+        <v>0.69238999999999995</v>
+      </c>
+      <c r="G5">
+        <v>0.71667000000000003</v>
+      </c>
+      <c r="H5">
+        <v>0.70118000000000003</v>
+      </c>
+      <c r="I5">
         <v>0.68945000000000001</v>
       </c>
-      <c r="B4">
-        <v>0.72035000000000005</v>
-      </c>
-      <c r="C4">
-        <v>0.70490000000000008</v>
+      <c r="J5">
+        <v>0.67754000000000003</v>
+      </c>
+      <c r="K5">
+        <v>0.68894999999999995</v>
+      </c>
+      <c r="L5">
+        <v>0.68539000000000005</v>
+      </c>
+      <c r="M5">
+        <v>0.69933000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.70216999999999996</v>
+      </c>
+      <c r="O5">
+        <v>0.69557000000000002</v>
+      </c>
+      <c r="P5">
+        <v>0.69796000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>0.70033000000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.69174999999999998</v>
+      </c>
+      <c r="S5">
+        <v>0.70486000000000004</v>
+      </c>
+      <c r="T5">
+        <v>0.70093000000000005</v>
+      </c>
+      <c r="U5">
+        <v>0.70404</v>
+      </c>
+      <c r="V5">
+        <v>0.70852999999999999</v>
+      </c>
+      <c r="W5">
+        <v>0.71726000000000001</v>
+      </c>
+      <c r="X5">
+        <v>0.68140000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>0.71677999999999997</v>
+      </c>
+      <c r="AA5">
+        <v>0.69855</v>
+      </c>
+      <c r="AB5">
+        <v>0.70303000000000004</v>
+      </c>
+      <c r="AC5">
+        <v>0.70581000000000005</v>
+      </c>
+      <c r="AD5">
+        <v>0.69244000000000006</v>
+      </c>
+      <c r="AE5">
+        <v>0.70055999999999996</v>
+      </c>
+      <c r="AF5">
+        <v>0.70074999999999998</v>
+      </c>
+      <c r="AG5">
+        <v>0.68935999999999997</v>
+      </c>
+      <c r="AH5">
+        <v>0.70804</v>
+      </c>
+      <c r="AI5">
+        <v>0.67584</v>
+      </c>
+      <c r="AJ5">
+        <v>0.70262000000000002</v>
+      </c>
+      <c r="AK5">
+        <v>0.70016</v>
+      </c>
+      <c r="AL5">
+        <v>0.72372000000000003</v>
+      </c>
+      <c r="AM5">
+        <v>0.69986999999999999</v>
+      </c>
+      <c r="AN5">
+        <v>0.66788000000000003</v>
+      </c>
+      <c r="AO5">
+        <v>0.70372000000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.68403999999999998</v>
+      </c>
+      <c r="AQ5">
+        <v>0.69157999999999997</v>
+      </c>
+      <c r="AR5">
+        <v>0.68845000000000001</v>
+      </c>
+      <c r="AS5">
+        <v>0.69252999999999998</v>
+      </c>
+      <c r="AT5">
+        <v>0.71923000000000004</v>
+      </c>
+      <c r="AU5">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="AV5">
+        <v>0.72433999999999998</v>
+      </c>
+      <c r="AW5">
+        <v>0.69442000000000004</v>
+      </c>
+      <c r="AX5">
+        <v>0.7167</v>
+      </c>
+      <c r="AY5">
+        <v>0.67854999999999999</v>
+      </c>
+      <c r="AZ5">
+        <v>0.71214999999999995</v>
+      </c>
+      <c r="BA5">
+        <v>0.70296999999999998</v>
+      </c>
+      <c r="BB5">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="BC5">
+        <v>0.68403000000000003</v>
+      </c>
+      <c r="BD5">
+        <v>0.70082999999999995</v>
+      </c>
+      <c r="BE5">
+        <v>0.69501999999999997</v>
+      </c>
+      <c r="BF5">
+        <v>0.69374000000000002</v>
+      </c>
+      <c r="BG5">
+        <v>0.70277000000000001</v>
+      </c>
+      <c r="BH5">
+        <v>0.68045</v>
+      </c>
+      <c r="BI5">
+        <v>0.69962000000000002</v>
+      </c>
+      <c r="BJ5">
+        <v>0.69208999999999998</v>
+      </c>
+      <c r="BK5">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="BL5">
+        <v>0.71516000000000002</v>
+      </c>
+      <c r="BM5">
+        <v>0.70438999999999996</v>
+      </c>
+      <c r="BN5">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="BO5">
+        <v>0.70852000000000004</v>
+      </c>
+      <c r="BP5">
+        <v>0.69342000000000004</v>
+      </c>
+      <c r="BQ5">
+        <v>0.72565999999999997</v>
+      </c>
+      <c r="BR5">
+        <v>0.7238</v>
+      </c>
+      <c r="BS5">
+        <v>0.69581999999999999</v>
+      </c>
+      <c r="BT5">
+        <v>0.70782999999999996</v>
+      </c>
+      <c r="BU5">
+        <v>0.69113999999999998</v>
+      </c>
+      <c r="BV5">
+        <v>0.69030999999999998</v>
+      </c>
+      <c r="BW5">
+        <v>0.71674000000000004</v>
+      </c>
+      <c r="BX5">
+        <v>0.69835000000000003</v>
+      </c>
+      <c r="BY5">
+        <v>0.71723000000000003</v>
+      </c>
+      <c r="BZ5">
+        <v>0.70294999999999996</v>
+      </c>
+      <c r="CA5">
+        <v>0.69879000000000002</v>
+      </c>
+      <c r="CB5">
+        <v>0.70154000000000005</v>
+      </c>
+      <c r="CC5">
+        <v>0.70694000000000001</v>
+      </c>
+      <c r="CD5">
+        <v>0.69647999999999999</v>
+      </c>
+      <c r="CE5">
+        <v>0.70303000000000004</v>
+      </c>
+      <c r="CF5">
+        <v>0.69803000000000004</v>
+      </c>
+      <c r="CG5">
+        <v>0.70662999999999998</v>
+      </c>
+      <c r="CH5">
+        <v>0.70926999999999996</v>
+      </c>
+      <c r="CI5">
+        <v>0.71672999999999998</v>
+      </c>
+      <c r="CJ5">
+        <v>0.69506999999999997</v>
+      </c>
+      <c r="CK5">
+        <v>0.70313999999999999</v>
+      </c>
+      <c r="CL5">
+        <v>0.68527000000000005</v>
+      </c>
+      <c r="CM5">
+        <v>0.69042999999999999</v>
+      </c>
+      <c r="CN5">
+        <v>0.68859000000000004</v>
+      </c>
+      <c r="CO5">
+        <v>0.71153999999999995</v>
+      </c>
+      <c r="CP5">
+        <v>0.69088000000000005</v>
+      </c>
+      <c r="CQ5">
+        <v>0.70657999999999999</v>
+      </c>
+      <c r="CR5">
+        <v>0.68955</v>
+      </c>
+      <c r="CS5">
+        <v>0.69589000000000001</v>
+      </c>
+      <c r="CT5">
+        <v>0.69674000000000003</v>
+      </c>
+      <c r="CU5">
+        <v>0.69364999999999999</v>
+      </c>
+      <c r="CV5">
+        <v>0.70698000000000005</v>
+      </c>
+      <c r="CW5">
+        <v>0.69977780000000023</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.70515000000000005</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.69377999999999995</v>
+      </c>
+      <c r="B6">
+        <v>0.69706000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.70121999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.68469999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.67918999999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.69372</v>
+      </c>
+      <c r="G6">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.68328999999999995</v>
+      </c>
+      <c r="I6">
+        <v>0.71306999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.69015000000000004</v>
+      </c>
+      <c r="K6">
+        <v>0.70238999999999996</v>
+      </c>
+      <c r="L6">
+        <v>0.66830999999999996</v>
+      </c>
+      <c r="M6">
+        <v>0.67381999999999997</v>
+      </c>
+      <c r="N6">
+        <v>0.67239000000000004</v>
+      </c>
+      <c r="O6">
+        <v>0.69343999999999995</v>
+      </c>
+      <c r="P6">
+        <v>0.69286999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="R6">
+        <v>0.69933000000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.68708999999999998</v>
+      </c>
+      <c r="T6">
+        <v>0.71313000000000004</v>
+      </c>
+      <c r="U6">
+        <v>0.68827000000000005</v>
+      </c>
+      <c r="V6">
+        <v>0.68630000000000002</v>
+      </c>
+      <c r="W6">
+        <v>0.69081999999999999</v>
+      </c>
+      <c r="X6">
+        <v>0.70235000000000003</v>
+      </c>
+      <c r="Y6">
+        <v>0.68684000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>0.69688000000000005</v>
+      </c>
+      <c r="AA6">
+        <v>0.71541999999999994</v>
+      </c>
+      <c r="AB6">
+        <v>0.72499000000000002</v>
+      </c>
+      <c r="AC6">
+        <v>0.70672000000000001</v>
+      </c>
+      <c r="AD6">
+        <v>0.71892</v>
+      </c>
+      <c r="AE6">
+        <v>0.69045999999999996</v>
+      </c>
+      <c r="AF6">
+        <v>0.71818000000000004</v>
+      </c>
+      <c r="AG6">
+        <v>0.68820000000000003</v>
+      </c>
+      <c r="AH6">
+        <v>0.67910999999999999</v>
+      </c>
+      <c r="AI6">
+        <v>0.68691000000000002</v>
+      </c>
+      <c r="AJ6">
+        <v>0.67849000000000004</v>
+      </c>
+      <c r="AK6">
+        <v>0.70155000000000001</v>
+      </c>
+      <c r="AL6">
+        <v>0.70206999999999997</v>
+      </c>
+      <c r="AM6">
+        <v>0.70076000000000005</v>
+      </c>
+      <c r="AN6">
+        <v>0.67612000000000005</v>
+      </c>
+      <c r="AO6">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="AP6">
+        <v>0.70101999999999998</v>
+      </c>
+      <c r="AQ6">
+        <v>0.68289</v>
+      </c>
+      <c r="AR6">
+        <v>0.69196999999999997</v>
+      </c>
+      <c r="AS6">
+        <v>0.69535999999999998</v>
+      </c>
+      <c r="AT6">
+        <v>0.67901</v>
+      </c>
+      <c r="AU6">
+        <v>0.69772000000000001</v>
+      </c>
+      <c r="AV6">
+        <v>0.70645999999999998</v>
+      </c>
+      <c r="AW6">
+        <v>0.70777000000000001</v>
+      </c>
+      <c r="AX6">
+        <v>0.70259000000000005</v>
+      </c>
+      <c r="AY6">
+        <v>0.71409999999999996</v>
+      </c>
+      <c r="AZ6">
+        <v>0.70455999999999996</v>
+      </c>
+      <c r="BA6">
+        <v>0.71145000000000003</v>
+      </c>
+      <c r="BB6">
+        <v>0.69838</v>
+      </c>
+      <c r="BC6">
+        <v>0.68713000000000002</v>
+      </c>
+      <c r="BD6">
+        <v>0.70545000000000002</v>
+      </c>
+      <c r="BE6">
+        <v>0.68774999999999997</v>
+      </c>
+      <c r="BF6">
+        <v>0.69235999999999998</v>
+      </c>
+      <c r="BG6">
+        <v>0.69782999999999995</v>
+      </c>
+      <c r="BH6">
+        <v>0.72009999999999996</v>
+      </c>
+      <c r="BI6">
+        <v>0.68937000000000004</v>
+      </c>
+      <c r="BJ6">
+        <v>0.70126999999999995</v>
+      </c>
+      <c r="BK6">
+        <v>0.70037000000000005</v>
+      </c>
+      <c r="BL6">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="BM6">
+        <v>0.69557000000000002</v>
+      </c>
+      <c r="BN6">
+        <v>0.71028999999999998</v>
+      </c>
+      <c r="BO6">
+        <v>0.71458999999999995</v>
+      </c>
+      <c r="BP6">
+        <v>0.66227000000000003</v>
+      </c>
+      <c r="BQ6">
+        <v>0.70594999999999997</v>
+      </c>
+      <c r="BR6">
+        <v>0.70082</v>
+      </c>
+      <c r="BS6">
+        <v>0.68913000000000002</v>
+      </c>
+      <c r="BT6">
+        <v>0.69959000000000005</v>
+      </c>
+      <c r="BU6">
+        <v>0.69654000000000005</v>
+      </c>
+      <c r="BV6">
+        <v>0.69252999999999998</v>
+      </c>
+      <c r="BW6">
+        <v>0.70355999999999996</v>
+      </c>
+      <c r="BX6">
+        <v>0.69245999999999996</v>
+      </c>
+      <c r="BY6">
+        <v>0.69055999999999995</v>
+      </c>
+      <c r="BZ6">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="CA6">
+        <v>0.69245999999999996</v>
+      </c>
+      <c r="CB6">
+        <v>0.71214999999999995</v>
+      </c>
+      <c r="CC6">
+        <v>0.70160999999999996</v>
+      </c>
+      <c r="CD6">
+        <v>0.70872999999999997</v>
+      </c>
+      <c r="CE6">
+        <v>0.68677999999999995</v>
+      </c>
+      <c r="CF6">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="CG6">
+        <v>0.70213999999999999</v>
+      </c>
+      <c r="CH6">
+        <v>0.69740999999999997</v>
+      </c>
+      <c r="CI6">
+        <v>0.70193000000000005</v>
+      </c>
+      <c r="CJ6">
+        <v>0.67379</v>
+      </c>
+      <c r="CK6">
+        <v>0.68115000000000003</v>
+      </c>
+      <c r="CL6">
+        <v>0.68755999999999995</v>
+      </c>
+      <c r="CM6">
+        <v>0.72226999999999997</v>
+      </c>
+      <c r="CN6">
+        <v>0.70421</v>
+      </c>
+      <c r="CO6">
+        <v>0.70935999999999999</v>
+      </c>
+      <c r="CP6">
+        <v>0.70157999999999998</v>
+      </c>
+      <c r="CQ6">
+        <v>0.68188000000000004</v>
+      </c>
+      <c r="CR6">
+        <v>0.69669999999999999</v>
+      </c>
+      <c r="CS6">
+        <v>0.67110999999999998</v>
+      </c>
+      <c r="CT6">
+        <v>0.68483000000000005</v>
+      </c>
+      <c r="CU6">
+        <v>0.69642000000000004</v>
+      </c>
+      <c r="CV6">
+        <v>0.69111</v>
+      </c>
+      <c r="CW6">
+        <v>0.69556890000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.68069999999999997</v>
+      </c>
+      <c r="B7">
+        <v>0.71152000000000004</v>
+      </c>
+      <c r="C7">
+        <v>0.69894999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0.69484999999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.70343999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.67015999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.68666000000000005</v>
+      </c>
+      <c r="H7">
+        <v>0.68798000000000004</v>
+      </c>
+      <c r="I7">
+        <v>0.68920999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.68879000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.68884000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.68479000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.68398000000000003</v>
+      </c>
+      <c r="N7">
+        <v>0.70191000000000003</v>
+      </c>
+      <c r="O7">
+        <v>0.69562000000000002</v>
+      </c>
+      <c r="P7">
+        <v>0.71216000000000002</v>
+      </c>
+      <c r="Q7">
+        <v>0.69965999999999995</v>
+      </c>
+      <c r="R7">
+        <v>0.70254000000000005</v>
+      </c>
+      <c r="S7">
+        <v>0.68276000000000003</v>
+      </c>
+      <c r="T7">
+        <v>0.69891000000000003</v>
+      </c>
+      <c r="U7">
+        <v>0.67345999999999995</v>
+      </c>
+      <c r="V7">
+        <v>0.67484999999999995</v>
+      </c>
+      <c r="W7">
+        <v>0.71318999999999999</v>
+      </c>
+      <c r="X7">
+        <v>0.68071999999999999</v>
+      </c>
+      <c r="Y7">
+        <v>0.67267999999999994</v>
+      </c>
+      <c r="Z7">
+        <v>0.67673000000000005</v>
+      </c>
+      <c r="AA7">
+        <v>0.67195000000000005</v>
+      </c>
+      <c r="AB7">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="AC7">
+        <v>0.68140999999999996</v>
+      </c>
+      <c r="AD7">
+        <v>0.71436999999999995</v>
+      </c>
+      <c r="AE7">
+        <v>0.71411999999999998</v>
+      </c>
+      <c r="AF7">
+        <v>0.70862000000000003</v>
+      </c>
+      <c r="AG7">
+        <v>0.68789999999999996</v>
+      </c>
+      <c r="AH7">
+        <v>0.71704999999999997</v>
+      </c>
+      <c r="AI7">
+        <v>0.68727000000000005</v>
+      </c>
+      <c r="AJ7">
+        <v>0.68984999999999996</v>
+      </c>
+      <c r="AK7">
+        <v>0.68281999999999998</v>
+      </c>
+      <c r="AL7">
+        <v>0.71118999999999999</v>
+      </c>
+      <c r="AM7">
+        <v>0.69677999999999995</v>
+      </c>
+      <c r="AN7">
+        <v>0.66727999999999998</v>
+      </c>
+      <c r="AO7">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AP7">
+        <v>0.70228000000000002</v>
+      </c>
+      <c r="AQ7">
+        <v>0.6915</v>
+      </c>
+      <c r="AR7">
+        <v>0.67584</v>
+      </c>
+      <c r="AS7">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="AT7">
+        <v>0.67091000000000001</v>
+      </c>
+      <c r="AU7">
+        <v>0.70753999999999995</v>
+      </c>
+      <c r="AV7">
+        <v>0.70157999999999998</v>
+      </c>
+      <c r="AW7">
+        <v>0.68689999999999996</v>
+      </c>
+      <c r="AX7">
+        <v>0.69871000000000005</v>
+      </c>
+      <c r="AY7">
+        <v>0.68581000000000003</v>
+      </c>
+      <c r="AZ7">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="BA7">
+        <v>0.68472</v>
+      </c>
+      <c r="BB7">
+        <v>0.70553999999999994</v>
+      </c>
+      <c r="BC7">
+        <v>0.69240999999999997</v>
+      </c>
+      <c r="BD7">
+        <v>0.68405000000000005</v>
+      </c>
+      <c r="BE7">
+        <v>0.68405000000000005</v>
+      </c>
+      <c r="BF7">
+        <v>0.68333999999999995</v>
+      </c>
+      <c r="BG7">
+        <v>0.67949999999999999</v>
+      </c>
+      <c r="BH7">
+        <v>0.70628000000000002</v>
+      </c>
+      <c r="BI7">
+        <v>0.70953999999999995</v>
+      </c>
+      <c r="BJ7">
+        <v>0.69152000000000002</v>
+      </c>
+      <c r="BK7">
+        <v>0.70143999999999995</v>
+      </c>
+      <c r="BL7">
+        <v>0.70881000000000005</v>
+      </c>
+      <c r="BM7">
+        <v>0.6986</v>
+      </c>
+      <c r="BN7">
+        <v>0.68379999999999996</v>
+      </c>
+      <c r="BO7">
+        <v>0.68730999999999998</v>
+      </c>
+      <c r="BP7">
+        <v>0.66491</v>
+      </c>
+      <c r="BQ7">
+        <v>0.69037999999999999</v>
+      </c>
+      <c r="BR7">
+        <v>0.71711000000000003</v>
+      </c>
+      <c r="BS7">
+        <v>0.70811999999999997</v>
+      </c>
+      <c r="BT7">
+        <v>0.70604999999999996</v>
+      </c>
+      <c r="BU7">
+        <v>0.68076999999999999</v>
+      </c>
+      <c r="BV7">
+        <v>0.69559000000000004</v>
+      </c>
+      <c r="BW7">
+        <v>0.67425999999999997</v>
+      </c>
+      <c r="BX7">
+        <v>0.70154000000000005</v>
+      </c>
+      <c r="BY7">
+        <v>0.70672000000000001</v>
+      </c>
+      <c r="BZ7">
+        <v>0.69311</v>
+      </c>
+      <c r="CA7">
+        <v>0.67823999999999995</v>
+      </c>
+      <c r="CB7">
+        <v>0.70155999999999996</v>
+      </c>
+      <c r="CC7">
+        <v>0.67129000000000005</v>
+      </c>
+      <c r="CD7">
+        <v>0.69018000000000002</v>
+      </c>
+      <c r="CE7">
+        <v>0.69718000000000002</v>
+      </c>
+      <c r="CF7">
+        <v>0.68552999999999997</v>
+      </c>
+      <c r="CG7">
+        <v>0.70486000000000004</v>
+      </c>
+      <c r="CH7">
+        <v>0.69091000000000002</v>
+      </c>
+      <c r="CI7">
+        <v>0.71008000000000004</v>
+      </c>
+      <c r="CJ7">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="CK7">
+        <v>0.70059000000000005</v>
+      </c>
+      <c r="CL7">
+        <v>0.68494999999999995</v>
+      </c>
+      <c r="CM7">
+        <v>0.69745000000000001</v>
+      </c>
+      <c r="CN7">
+        <v>0.70055000000000001</v>
+      </c>
+      <c r="CO7">
+        <v>0.67925000000000002</v>
+      </c>
+      <c r="CP7">
+        <v>0.69328000000000001</v>
+      </c>
+      <c r="CQ7">
+        <v>0.70326</v>
+      </c>
+      <c r="CR7">
+        <v>0.71357000000000004</v>
+      </c>
+      <c r="CS7">
+        <v>0.70387999999999995</v>
+      </c>
+      <c r="CT7">
+        <v>0.67827000000000004</v>
+      </c>
+      <c r="CU7">
+        <v>0.69472</v>
+      </c>
+      <c r="CV7">
+        <v>0.68842000000000003</v>
+      </c>
+      <c r="CW7">
+        <v>0.69294529999999976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.68871000000000004</v>
+      </c>
+      <c r="B8">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.69349000000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.68525999999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.68930000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.67313000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.67503000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.67903000000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.67766999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.68320000000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.68528999999999995</v>
+      </c>
+      <c r="L8">
+        <v>0.69152000000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.70076000000000005</v>
+      </c>
+      <c r="N8">
+        <v>0.69972999999999996</v>
+      </c>
+      <c r="O8">
+        <v>0.68047999999999997</v>
+      </c>
+      <c r="P8">
+        <v>0.68989</v>
+      </c>
+      <c r="Q8">
+        <v>0.68711</v>
+      </c>
+      <c r="R8">
+        <v>0.67706</v>
+      </c>
+      <c r="S8">
+        <v>0.68447000000000002</v>
+      </c>
+      <c r="T8">
+        <v>0.68915000000000004</v>
+      </c>
+      <c r="U8">
+        <v>0.68677999999999995</v>
+      </c>
+      <c r="V8">
+        <v>0.71635000000000004</v>
+      </c>
+      <c r="W8">
+        <v>0.71023999999999998</v>
+      </c>
+      <c r="X8">
+        <v>0.68496999999999997</v>
+      </c>
+      <c r="Y8">
+        <v>0.70435999999999999</v>
+      </c>
+      <c r="Z8">
+        <v>0.68747999999999998</v>
+      </c>
+      <c r="AA8">
+        <v>0.66308999999999996</v>
+      </c>
+      <c r="AB8">
+        <v>0.68142999999999998</v>
+      </c>
+      <c r="AC8">
+        <v>0.68761000000000005</v>
+      </c>
+      <c r="AD8">
+        <v>0.68583000000000005</v>
+      </c>
+      <c r="AE8">
+        <v>0.71736</v>
+      </c>
+      <c r="AF8">
+        <v>0.67749000000000004</v>
+      </c>
+      <c r="AG8">
+        <v>0.65974999999999995</v>
+      </c>
+      <c r="AH8">
+        <v>0.69662000000000002</v>
+      </c>
+      <c r="AI8">
+        <v>0.68840999999999997</v>
+      </c>
+      <c r="AJ8">
+        <v>0.67462</v>
+      </c>
+      <c r="AK8">
+        <v>0.69003000000000003</v>
+      </c>
+      <c r="AL8">
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="AM8">
+        <v>0.70238999999999996</v>
+      </c>
+      <c r="AN8">
+        <v>0.66593999999999998</v>
+      </c>
+      <c r="AO8">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="AP8">
+        <v>0.70045999999999997</v>
+      </c>
+      <c r="AQ8">
+        <v>0.69140000000000001</v>
+      </c>
+      <c r="AR8">
+        <v>0.69323999999999997</v>
+      </c>
+      <c r="AS8">
+        <v>0.70091999999999999</v>
+      </c>
+      <c r="AT8">
+        <v>0.69445999999999997</v>
+      </c>
+      <c r="AU8">
+        <v>0.70238999999999996</v>
+      </c>
+      <c r="AV8">
+        <v>0.68171999999999999</v>
+      </c>
+      <c r="AW8">
+        <v>0.67464999999999997</v>
+      </c>
+      <c r="AX8">
+        <v>0.69567999999999997</v>
+      </c>
+      <c r="AY8">
+        <v>0.67852000000000001</v>
+      </c>
+      <c r="AZ8">
+        <v>0.68203000000000003</v>
+      </c>
+      <c r="BA8">
+        <v>0.68267999999999995</v>
+      </c>
+      <c r="BB8">
+        <v>0.68635999999999997</v>
+      </c>
+      <c r="BC8">
+        <v>0.66559000000000001</v>
+      </c>
+      <c r="BD8">
+        <v>0.69655</v>
+      </c>
+      <c r="BE8">
+        <v>0.69188000000000005</v>
+      </c>
+      <c r="BF8">
+        <v>0.69062999999999997</v>
+      </c>
+      <c r="BG8">
+        <v>0.69516999999999995</v>
+      </c>
+      <c r="BH8">
+        <v>0.68235000000000001</v>
+      </c>
+      <c r="BI8">
+        <v>0.66549000000000003</v>
+      </c>
+      <c r="BJ8">
+        <v>0.67979000000000001</v>
+      </c>
+      <c r="BK8">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="BL8">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="BM8">
+        <v>0.68196999999999997</v>
+      </c>
+      <c r="BN8">
+        <v>0.69471000000000005</v>
+      </c>
+      <c r="BO8">
+        <v>0.68562999999999996</v>
+      </c>
+      <c r="BP8">
+        <v>0.68698000000000004</v>
+      </c>
+      <c r="BQ8">
+        <v>0.69942000000000004</v>
+      </c>
+      <c r="BR8">
+        <v>0.68852000000000002</v>
+      </c>
+      <c r="BS8">
+        <v>0.69255999999999995</v>
+      </c>
+      <c r="BT8">
+        <v>0.68611999999999995</v>
+      </c>
+      <c r="BU8">
+        <v>0.69513999999999998</v>
+      </c>
+      <c r="BV8">
+        <v>0.67357999999999996</v>
+      </c>
+      <c r="BW8">
+        <v>0.68371999999999999</v>
+      </c>
+      <c r="BX8">
+        <v>0.68569000000000002</v>
+      </c>
+      <c r="BY8">
+        <v>0.69494999999999996</v>
+      </c>
+      <c r="BZ8">
+        <v>0.70547000000000004</v>
+      </c>
+      <c r="CA8">
+        <v>0.67215000000000003</v>
+      </c>
+      <c r="CB8">
+        <v>0.67273000000000005</v>
+      </c>
+      <c r="CC8">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="CD8">
+        <v>0.68732000000000004</v>
+      </c>
+      <c r="CE8">
+        <v>0.68972999999999995</v>
+      </c>
+      <c r="CF8">
+        <v>0.67222999999999999</v>
+      </c>
+      <c r="CG8">
+        <v>0.66944000000000004</v>
+      </c>
+      <c r="CH8">
+        <v>0.68691999999999998</v>
+      </c>
+      <c r="CI8">
+        <v>0.68462999999999996</v>
+      </c>
+      <c r="CJ8">
+        <v>0.69298999999999999</v>
+      </c>
+      <c r="CK8">
+        <v>0.69864999999999999</v>
+      </c>
+      <c r="CL8">
+        <v>0.68323</v>
+      </c>
+      <c r="CM8">
+        <v>0.69845999999999997</v>
+      </c>
+      <c r="CN8">
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="CO8">
+        <v>0.67954999999999999</v>
+      </c>
+      <c r="CP8">
+        <v>0.69979999999999998</v>
+      </c>
+      <c r="CQ8">
+        <v>0.69059999999999999</v>
+      </c>
+      <c r="CR8">
+        <v>0.69216999999999995</v>
+      </c>
+      <c r="CS8">
+        <v>0.68713999999999997</v>
+      </c>
+      <c r="CT8">
+        <v>0.69291000000000003</v>
+      </c>
+      <c r="CU8">
+        <v>0.69954000000000005</v>
+      </c>
+      <c r="CV8">
+        <v>0.70284999999999997</v>
+      </c>
+      <c r="CW8">
+        <v>0.68687489999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="B9">
+        <v>0.69040999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.67066000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.67832000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.69525000000000003</v>
+      </c>
+      <c r="F9">
+        <v>0.67757000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.68966000000000005</v>
+      </c>
+      <c r="H9">
+        <v>0.68222000000000005</v>
+      </c>
+      <c r="I9">
+        <v>0.68128</v>
+      </c>
+      <c r="J9">
+        <v>0.67176999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.66205999999999998</v>
+      </c>
+      <c r="L9">
+        <v>0.67195000000000005</v>
+      </c>
+      <c r="M9">
+        <v>0.69771000000000005</v>
+      </c>
+      <c r="N9">
+        <v>0.67995000000000005</v>
+      </c>
+      <c r="O9">
+        <v>0.68735999999999997</v>
+      </c>
+      <c r="P9">
+        <v>0.67957000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.69513000000000003</v>
+      </c>
+      <c r="R9">
+        <v>0.68344000000000005</v>
+      </c>
+      <c r="S9">
+        <v>0.68089</v>
+      </c>
+      <c r="T9">
+        <v>0.71325000000000005</v>
+      </c>
+      <c r="U9">
+        <v>0.68364999999999998</v>
+      </c>
+      <c r="V9">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="W9">
+        <v>0.68645</v>
+      </c>
+      <c r="X9">
+        <v>0.68857999999999997</v>
+      </c>
+      <c r="Y9">
+        <v>0.69510000000000005</v>
+      </c>
+      <c r="Z9">
+        <v>0.67395000000000005</v>
+      </c>
+      <c r="AA9">
+        <v>0.69843999999999995</v>
+      </c>
+      <c r="AB9">
+        <v>0.69018999999999997</v>
+      </c>
+      <c r="AC9">
+        <v>0.68938999999999995</v>
+      </c>
+      <c r="AD9">
+        <v>0.68691000000000002</v>
+      </c>
+      <c r="AE9">
+        <v>0.68462000000000001</v>
+      </c>
+      <c r="AF9">
+        <v>0.69355999999999995</v>
+      </c>
+      <c r="AG9">
+        <v>0.69669999999999999</v>
+      </c>
+      <c r="AH9">
+        <v>0.69393000000000005</v>
+      </c>
+      <c r="AI9">
+        <v>0.69201000000000001</v>
+      </c>
+      <c r="AJ9">
+        <v>0.67742999999999998</v>
+      </c>
+      <c r="AK9">
+        <v>0.67537999999999998</v>
+      </c>
+      <c r="AL9">
+        <v>0.68213999999999997</v>
+      </c>
+      <c r="AM9">
+        <v>0.69305000000000005</v>
+      </c>
+      <c r="AN9">
+        <v>0.67766000000000004</v>
+      </c>
+      <c r="AO9">
+        <v>0.70347000000000004</v>
+      </c>
+      <c r="AP9">
+        <v>0.68145</v>
+      </c>
+      <c r="AQ9">
+        <v>0.68464999999999998</v>
+      </c>
+      <c r="AR9">
+        <v>0.67476999999999998</v>
+      </c>
+      <c r="AS9">
+        <v>0.69284999999999997</v>
+      </c>
+      <c r="AT9">
+        <v>0.66874</v>
+      </c>
+      <c r="AU9">
+        <v>0.69613000000000003</v>
+      </c>
+      <c r="AV9">
+        <v>0.70901999999999998</v>
+      </c>
+      <c r="AW9">
+        <v>0.68783000000000005</v>
+      </c>
+      <c r="AX9">
+        <v>0.68655999999999995</v>
+      </c>
+      <c r="AY9">
+        <v>0.66932000000000003</v>
+      </c>
+      <c r="AZ9">
+        <v>0.66325000000000001</v>
+      </c>
+      <c r="BA9">
+        <v>0.67093000000000003</v>
+      </c>
+      <c r="BB9">
+        <v>0.68494999999999995</v>
+      </c>
+      <c r="BC9">
+        <v>0.71336999999999995</v>
+      </c>
+      <c r="BD9">
+        <v>0.68971000000000005</v>
+      </c>
+      <c r="BE9">
+        <v>0.68811</v>
+      </c>
+      <c r="BF9">
+        <v>0.70855000000000001</v>
+      </c>
+      <c r="BG9">
+        <v>0.68110999999999999</v>
+      </c>
+      <c r="BH9">
+        <v>0.69506999999999997</v>
+      </c>
+      <c r="BI9">
+        <v>0.70213000000000003</v>
+      </c>
+      <c r="BJ9">
+        <v>0.70520000000000005</v>
+      </c>
+      <c r="BK9">
+        <v>0.71136999999999995</v>
+      </c>
+      <c r="BL9">
+        <v>0.67769000000000001</v>
+      </c>
+      <c r="BM9">
+        <v>0.66405000000000003</v>
+      </c>
+      <c r="BN9">
+        <v>0.69157000000000002</v>
+      </c>
+      <c r="BO9">
+        <v>0.66457999999999995</v>
+      </c>
+      <c r="BP9">
+        <v>0.68942000000000003</v>
+      </c>
+      <c r="BQ9">
+        <v>0.68671000000000004</v>
+      </c>
+      <c r="BR9">
+        <v>0.67356000000000005</v>
+      </c>
+      <c r="BS9">
+        <v>0.68913999999999997</v>
+      </c>
+      <c r="BT9">
+        <v>0.68971000000000005</v>
+      </c>
+      <c r="BU9">
+        <v>0.69481999999999999</v>
+      </c>
+      <c r="BV9">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="BW9">
+        <v>0.67866000000000004</v>
+      </c>
+      <c r="BX9">
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="BY9">
+        <v>0.67681999999999998</v>
+      </c>
+      <c r="BZ9">
+        <v>0.70957000000000003</v>
+      </c>
+      <c r="CA9">
+        <v>0.67771000000000003</v>
+      </c>
+      <c r="CB9">
+        <v>0.68411999999999995</v>
+      </c>
+      <c r="CC9">
+        <v>0.6804</v>
+      </c>
+      <c r="CD9">
+        <v>0.68230000000000002</v>
+      </c>
+      <c r="CE9">
+        <v>0.68769000000000002</v>
+      </c>
+      <c r="CF9">
+        <v>0.67356000000000005</v>
+      </c>
+      <c r="CG9">
+        <v>0.6825</v>
+      </c>
+      <c r="CH9">
+        <v>0.67395000000000005</v>
+      </c>
+      <c r="CI9">
+        <v>0.67681999999999998</v>
+      </c>
+      <c r="CJ9">
+        <v>0.68679000000000001</v>
+      </c>
+      <c r="CK9">
+        <v>0.66942000000000002</v>
+      </c>
+      <c r="CL9">
+        <v>0.66903000000000001</v>
+      </c>
+      <c r="CM9">
+        <v>0.67527999999999999</v>
+      </c>
+      <c r="CN9">
+        <v>0.68654999999999999</v>
+      </c>
+      <c r="CO9">
+        <v>0.69313999999999998</v>
+      </c>
+      <c r="CP9">
+        <v>0.66735999999999995</v>
+      </c>
+      <c r="CQ9">
+        <v>0.67737999999999998</v>
+      </c>
+      <c r="CR9">
+        <v>0.67701999999999996</v>
+      </c>
+      <c r="CS9">
+        <v>0.69364999999999999</v>
+      </c>
+      <c r="CT9">
+        <v>0.69796000000000002</v>
+      </c>
+      <c r="CU9">
+        <v>0.67554999999999998</v>
+      </c>
+      <c r="CV9">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="CW9">
+        <v>0.68518809999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.67845999999999995</v>
+      </c>
+      <c r="B10">
+        <v>0.68611</v>
+      </c>
+      <c r="C10">
+        <v>0.66317999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.67405999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.67447999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.69591999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.67667999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.68223999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.69433999999999996</v>
+      </c>
+      <c r="J10">
+        <v>0.69442000000000004</v>
+      </c>
+      <c r="K10">
+        <v>0.68952000000000002</v>
+      </c>
+      <c r="L10">
+        <v>0.64881</v>
+      </c>
+      <c r="M10">
+        <v>0.68752999999999997</v>
+      </c>
+      <c r="N10">
+        <v>0.68394999999999995</v>
+      </c>
+      <c r="O10">
+        <v>0.67932000000000003</v>
+      </c>
+      <c r="P10">
+        <v>0.69206999999999996</v>
+      </c>
+      <c r="Q10">
+        <v>0.69438</v>
+      </c>
+      <c r="R10">
+        <v>0.67813999999999997</v>
+      </c>
+      <c r="S10">
+        <v>0.66757</v>
+      </c>
+      <c r="T10">
+        <v>0.67642000000000002</v>
+      </c>
+      <c r="U10">
+        <v>0.69837000000000005</v>
+      </c>
+      <c r="V10">
+        <v>0.65952999999999995</v>
+      </c>
+      <c r="W10">
+        <v>0.67125999999999997</v>
+      </c>
+      <c r="X10">
+        <v>0.66371000000000002</v>
+      </c>
+      <c r="Y10">
+        <v>0.66442000000000001</v>
+      </c>
+      <c r="Z10">
+        <v>0.68054000000000003</v>
+      </c>
+      <c r="AA10">
+        <v>0.69821</v>
+      </c>
+      <c r="AB10">
+        <v>0.68940000000000001</v>
+      </c>
+      <c r="AC10">
+        <v>0.68393000000000004</v>
+      </c>
+      <c r="AD10">
+        <v>0.67476999999999998</v>
+      </c>
+      <c r="AE10">
+        <v>0.66454000000000002</v>
+      </c>
+      <c r="AF10">
+        <v>0.69042000000000003</v>
+      </c>
+      <c r="AG10">
+        <v>0.67779</v>
+      </c>
+      <c r="AH10">
+        <v>0.69821999999999995</v>
+      </c>
+      <c r="AI10">
+        <v>0.68383000000000005</v>
+      </c>
+      <c r="AJ10">
+        <v>0.69042999999999999</v>
+      </c>
+      <c r="AK10">
+        <v>0.67039000000000004</v>
+      </c>
+      <c r="AL10">
+        <v>0.66395999999999999</v>
+      </c>
+      <c r="AM10">
+        <v>0.66052</v>
+      </c>
+      <c r="AN10">
+        <v>0.68745000000000001</v>
+      </c>
+      <c r="AO10">
+        <v>0.69059000000000004</v>
+      </c>
+      <c r="AP10">
+        <v>0.66317000000000004</v>
+      </c>
+      <c r="AQ10">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="AR10">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="AS10">
+        <v>0.67969000000000002</v>
+      </c>
+      <c r="AT10">
+        <v>0.66835</v>
+      </c>
+      <c r="AU10">
+        <v>0.67345999999999995</v>
+      </c>
+      <c r="AV10">
+        <v>0.67954000000000003</v>
+      </c>
+      <c r="AW10">
+        <v>0.68271000000000004</v>
+      </c>
+      <c r="AX10">
         <v>0.69159000000000004</v>
       </c>
-      <c r="C5">
-        <v>0.69837000000000005</v>
+      <c r="AY10">
+        <v>0.64822000000000002</v>
+      </c>
+      <c r="AZ10">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="BA10">
+        <v>0.68613999999999997</v>
+      </c>
+      <c r="BB10">
+        <v>0.69496999999999998</v>
+      </c>
+      <c r="BC10">
+        <v>0.68645</v>
+      </c>
+      <c r="BD10">
+        <v>0.68232999999999999</v>
+      </c>
+      <c r="BE10">
+        <v>0.67932999999999999</v>
+      </c>
+      <c r="BF10">
+        <v>0.68376000000000003</v>
+      </c>
+      <c r="BG10">
+        <v>0.65681</v>
+      </c>
+      <c r="BH10">
+        <v>0.68991000000000002</v>
+      </c>
+      <c r="BI10">
+        <v>0.69394999999999996</v>
+      </c>
+      <c r="BJ10">
+        <v>0.66269999999999996</v>
+      </c>
+      <c r="BK10">
+        <v>0.67967999999999995</v>
+      </c>
+      <c r="BL10">
+        <v>0.66966000000000003</v>
+      </c>
+      <c r="BM10">
+        <v>0.67613000000000001</v>
+      </c>
+      <c r="BN10">
+        <v>0.71167999999999998</v>
+      </c>
+      <c r="BO10">
+        <v>0.66442000000000001</v>
+      </c>
+      <c r="BP10">
+        <v>0.68659000000000003</v>
+      </c>
+      <c r="BQ10">
+        <v>0.69476000000000004</v>
+      </c>
+      <c r="BR10">
+        <v>0.69467000000000001</v>
+      </c>
+      <c r="BS10">
+        <v>0.67722000000000004</v>
+      </c>
+      <c r="BT10">
+        <v>0.66752999999999996</v>
+      </c>
+      <c r="BU10">
+        <v>0.67244000000000004</v>
+      </c>
+      <c r="BV10">
+        <v>0.68310999999999999</v>
+      </c>
+      <c r="BW10">
+        <v>0.68098999999999998</v>
+      </c>
+      <c r="BX10">
+        <v>0.68874999999999997</v>
+      </c>
+      <c r="BY10">
+        <v>0.67113999999999996</v>
+      </c>
+      <c r="BZ10">
+        <v>0.66525000000000001</v>
+      </c>
+      <c r="CA10">
+        <v>0.66413</v>
+      </c>
+      <c r="CB10">
+        <v>0.68557000000000001</v>
+      </c>
+      <c r="CC10">
+        <v>0.69659000000000004</v>
+      </c>
+      <c r="CD10">
+        <v>0.70821999999999996</v>
+      </c>
+      <c r="CE10">
+        <v>0.67047000000000001</v>
+      </c>
+      <c r="CF10">
+        <v>0.66047</v>
+      </c>
+      <c r="CG10">
+        <v>0.69520000000000004</v>
+      </c>
+      <c r="CH10">
+        <v>0.68922000000000005</v>
+      </c>
+      <c r="CI10">
+        <v>0.66310999999999998</v>
+      </c>
+      <c r="CJ10">
+        <v>0.68089</v>
+      </c>
+      <c r="CK10">
+        <v>0.68959000000000004</v>
+      </c>
+      <c r="CL10">
+        <v>0.67476000000000003</v>
+      </c>
+      <c r="CM10">
+        <v>0.68777999999999995</v>
+      </c>
+      <c r="CN10">
+        <v>0.67835000000000001</v>
+      </c>
+      <c r="CO10">
+        <v>0.69998000000000005</v>
+      </c>
+      <c r="CP10">
+        <v>0.66959000000000002</v>
+      </c>
+      <c r="CQ10">
+        <v>0.69477999999999995</v>
+      </c>
+      <c r="CR10">
+        <v>0.67647000000000002</v>
+      </c>
+      <c r="CS10">
+        <v>0.67305999999999999</v>
+      </c>
+      <c r="CT10">
+        <v>0.68132999999999999</v>
+      </c>
+      <c r="CU10">
+        <v>0.66705999999999999</v>
+      </c>
+      <c r="CV10">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="CW10">
+        <v>0.67990600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.70720000000000005</v>
-      </c>
-      <c r="B6">
-        <v>0.69208000000000003</v>
-      </c>
-      <c r="C6">
-        <v>0.69964000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.67206999999999995</v>
-      </c>
-      <c r="B7">
-        <v>0.69701999999999997</v>
-      </c>
-      <c r="C7">
-        <v>0.68454499999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.66908000000000001</v>
-      </c>
-      <c r="B8">
-        <v>0.67637000000000003</v>
-      </c>
-      <c r="C8">
-        <v>0.67272500000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.68747999999999998</v>
-      </c>
-      <c r="B9">
-        <v>0.68957999999999997</v>
-      </c>
-      <c r="C9">
-        <v>0.68852999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.70311000000000001</v>
-      </c>
-      <c r="B10">
-        <v>0.66691</v>
-      </c>
-      <c r="C10">
-        <v>0.68501000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.70142000000000004</v>
+        <v>0.68489</v>
       </c>
       <c r="B11">
-        <v>0.67417000000000005</v>
+        <v>0.67718</v>
       </c>
       <c r="C11">
-        <v>0.68779500000000005</v>
+        <v>0.66793000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.67727999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.68272999999999995</v>
+      </c>
+      <c r="F11">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.67715000000000003</v>
+      </c>
+      <c r="H11">
+        <v>0.67835000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.68781999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.66857999999999995</v>
+      </c>
+      <c r="K11">
+        <v>0.68006</v>
+      </c>
+      <c r="L11">
+        <v>0.67166000000000003</v>
+      </c>
+      <c r="M11">
+        <v>0.68835999999999997</v>
+      </c>
+      <c r="N11">
+        <v>0.66993999999999998</v>
+      </c>
+      <c r="O11">
+        <v>0.67947999999999997</v>
+      </c>
+      <c r="P11">
+        <v>0.68161000000000005</v>
+      </c>
+      <c r="Q11">
+        <v>0.67232000000000003</v>
+      </c>
+      <c r="R11">
+        <v>0.66927999999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.67693999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="U11">
+        <v>0.68635999999999997</v>
+      </c>
+      <c r="V11">
+        <v>0.69562999999999997</v>
+      </c>
+      <c r="W11">
+        <v>0.67383000000000004</v>
+      </c>
+      <c r="X11">
+        <v>0.66751000000000005</v>
+      </c>
+      <c r="Y11">
+        <v>0.66608000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>0.65769999999999995</v>
+      </c>
+      <c r="AA11">
+        <v>0.66446000000000005</v>
+      </c>
+      <c r="AB11">
+        <v>0.66737999999999997</v>
+      </c>
+      <c r="AC11">
+        <v>0.69138999999999995</v>
+      </c>
+      <c r="AD11">
+        <v>0.67396999999999996</v>
+      </c>
+      <c r="AE11">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AF11">
+        <v>0.68254999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.67679</v>
+      </c>
+      <c r="AH11">
+        <v>0.67696999999999996</v>
+      </c>
+      <c r="AI11">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="AJ11">
+        <v>0.65903999999999996</v>
+      </c>
+      <c r="AK11">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="AL11">
+        <v>0.67859000000000003</v>
+      </c>
+      <c r="AM11">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="AN11">
+        <v>0.68532999999999999</v>
+      </c>
+      <c r="AO11">
+        <v>0.67686000000000002</v>
+      </c>
+      <c r="AP11">
+        <v>0.66776999999999997</v>
+      </c>
+      <c r="AQ11">
+        <v>0.68174999999999997</v>
+      </c>
+      <c r="AR11">
+        <v>0.68093999999999999</v>
+      </c>
+      <c r="AS11">
+        <v>0.66347</v>
+      </c>
+      <c r="AT11">
+        <v>0.68455999999999995</v>
+      </c>
+      <c r="AU11">
+        <v>0.68362000000000001</v>
+      </c>
+      <c r="AV11">
+        <v>0.69742999999999999</v>
+      </c>
+      <c r="AW11">
+        <v>0.68269000000000002</v>
+      </c>
+      <c r="AX11">
+        <v>0.67783000000000004</v>
+      </c>
+      <c r="AY11">
+        <v>0.67174999999999996</v>
+      </c>
+      <c r="AZ11">
+        <v>0.69252999999999998</v>
+      </c>
+      <c r="BA11">
+        <v>0.67769000000000001</v>
+      </c>
+      <c r="BB11">
+        <v>0.68730999999999998</v>
+      </c>
+      <c r="BC11">
+        <v>0.67240999999999995</v>
+      </c>
+      <c r="BD11">
+        <v>0.67781999999999998</v>
+      </c>
+      <c r="BE11">
+        <v>0.68733</v>
+      </c>
+      <c r="BF11">
+        <v>0.66649000000000003</v>
+      </c>
+      <c r="BG11">
+        <v>0.67088999999999999</v>
+      </c>
+      <c r="BH11">
+        <v>0.67715999999999998</v>
+      </c>
+      <c r="BI11">
+        <v>0.66525999999999996</v>
+      </c>
+      <c r="BJ11">
+        <v>0.68581999999999999</v>
+      </c>
+      <c r="BK11">
+        <v>0.67725999999999997</v>
+      </c>
+      <c r="BL11">
+        <v>0.69081000000000004</v>
+      </c>
+      <c r="BM11">
+        <v>0.68410000000000004</v>
+      </c>
+      <c r="BN11">
+        <v>0.67954999999999999</v>
+      </c>
+      <c r="BO11">
+        <v>0.67603000000000002</v>
+      </c>
+      <c r="BP11">
+        <v>0.65358000000000005</v>
+      </c>
+      <c r="BQ11">
+        <v>0.66332000000000002</v>
+      </c>
+      <c r="BR11">
+        <v>0.68469000000000002</v>
+      </c>
+      <c r="BS11">
+        <v>0.70103000000000004</v>
+      </c>
+      <c r="BT11">
+        <v>0.67229000000000005</v>
+      </c>
+      <c r="BU11">
+        <v>0.66815999999999998</v>
+      </c>
+      <c r="BV11">
+        <v>0.70867999999999998</v>
+      </c>
+      <c r="BW11">
+        <v>0.65291999999999994</v>
+      </c>
+      <c r="BX11">
+        <v>0.67183000000000004</v>
+      </c>
+      <c r="BY11">
+        <v>0.68001999999999996</v>
+      </c>
+      <c r="BZ11">
+        <v>0.66759999999999997</v>
+      </c>
+      <c r="CA11">
+        <v>0.70098000000000005</v>
+      </c>
+      <c r="CB11">
+        <v>0.68620999999999999</v>
+      </c>
+      <c r="CC11">
+        <v>0.66756000000000004</v>
+      </c>
+      <c r="CD11">
+        <v>0.66364999999999996</v>
+      </c>
+      <c r="CE11">
+        <v>0.66695000000000004</v>
+      </c>
+      <c r="CF11">
+        <v>0.69477999999999995</v>
+      </c>
+      <c r="CG11">
+        <v>0.68130000000000002</v>
+      </c>
+      <c r="CH11">
+        <v>0.66098999999999997</v>
+      </c>
+      <c r="CI11">
+        <v>0.69655</v>
+      </c>
+      <c r="CJ11">
+        <v>0.69818999999999998</v>
+      </c>
+      <c r="CK11">
+        <v>0.68413999999999997</v>
+      </c>
+      <c r="CL11">
+        <v>0.66686000000000001</v>
+      </c>
+      <c r="CM11">
+        <v>0.68476999999999999</v>
+      </c>
+      <c r="CN11">
+        <v>0.67322000000000004</v>
+      </c>
+      <c r="CO11">
+        <v>0.68252999999999997</v>
+      </c>
+      <c r="CP11">
+        <v>0.68474000000000002</v>
+      </c>
+      <c r="CQ11">
+        <v>0.68003000000000002</v>
+      </c>
+      <c r="CR11">
+        <v>0.66530999999999996</v>
+      </c>
+      <c r="CS11">
+        <v>0.68964000000000003</v>
+      </c>
+      <c r="CT11">
+        <v>0.67262999999999995</v>
+      </c>
+      <c r="CU11">
+        <v>0.68291000000000002</v>
+      </c>
+      <c r="CV11">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="CW11">
+        <v>0.67773630000000007</v>
       </c>
     </row>
   </sheetData>
